--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -186,26 +186,28 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="E1">
-            <v>3</v>
-          </cell>
-          <cell r="G1">
-            <v>2</v>
+          <cell r="H1">
+            <v>31</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="G2">
-            <v>0</v>
+          <cell r="H2">
+            <v>5</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="G4">
+        <row r="3">
+          <cell r="H3">
             <v>19</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="G5">
-            <v>0</v>
+          <cell r="H5">
+            <v>219</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>149</v>
           </cell>
         </row>
       </sheetData>
@@ -227,28 +229,26 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="H1">
-            <v>31</v>
+          <cell r="E1">
+            <v>3</v>
+          </cell>
+          <cell r="G1">
+            <v>2</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="H2">
-            <v>6</v>
+          <cell r="G2">
+            <v>0</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="H3">
-            <v>18</v>
+        <row r="4">
+          <cell r="G4">
+            <v>19</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="H5">
-            <v>219</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>143</v>
+          <cell r="G5">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -600,23 +600,23 @@
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f>[2]Sheet1!$H$2</f>
-        <v>6</v>
+        <f>[1]Sheet1!$H$2</f>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <f>[2]Sheet1!$H$3</f>
-        <v>18</v>
+        <f>[1]Sheet1!$H$3</f>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
-        <f>[2]Sheet1!$H$1</f>
+        <f>[1]Sheet1!$H$1</f>
         <v>31</v>
       </c>
       <c r="E2" s="1">
-        <f>[2]Sheet1!$H$6</f>
-        <v>143</v>
+        <f>[1]Sheet1!$H$6</f>
+        <v>149</v>
       </c>
       <c r="F2" s="1">
-        <f>[2]Sheet1!$H$5</f>
+        <f>[1]Sheet1!$H$5</f>
         <v>219</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -624,7 +624,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -639,23 +639,23 @@
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <f>[1]Sheet1!$G$1</f>
+        <f>[2]Sheet1!$G$1</f>
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <f>[1]Sheet1!$G$2</f>
+        <f>[2]Sheet1!$G$2</f>
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <f>[1]Sheet1!$E$1</f>
+        <f>[2]Sheet1!$E$1</f>
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <f>[1]Sheet1!$G$5</f>
+        <f>[2]Sheet1!$G$5</f>
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>[1]Sheet1!$G$4</f>
+        <f>[2]Sheet1!$G$4</f>
         <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -663,7 +663,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.60084033613445376</v>
+        <v>0.62605042016806722</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -192,7 +192,7 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="3">
@@ -202,7 +202,7 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>219</v>
+            <v>230</v>
           </cell>
         </row>
         <row r="6">
@@ -233,12 +233,12 @@
             <v>3</v>
           </cell>
           <cell r="G1">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
@@ -248,7 +248,7 @@
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -601,7 +601,7 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$H$2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$H$3</f>
@@ -617,7 +617,7 @@
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
@@ -631,7 +631,7 @@
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -640,11 +640,11 @@
       </c>
       <c r="B3" s="1">
         <f>[2]Sheet1!$G$1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <f>[2]Sheet1!$G$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <f>[2]Sheet1!$E$1</f>
@@ -652,7 +652,7 @@
       </c>
       <c r="E3" s="1">
         <f>[2]Sheet1!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <f>[2]Sheet1!$G$4</f>
@@ -663,7 +663,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.62605042016806722</v>
+        <v>0.60240963855421692</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -187,7 +187,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>31</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="2">
@@ -197,17 +197,17 @@
         </row>
         <row r="3">
           <cell r="H3">
-            <v>19</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>230</v>
+            <v>194</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>149</v>
+            <v>120</v>
           </cell>
         </row>
       </sheetData>
@@ -591,7 +591,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -605,19 +605,19 @@
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$H$3</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$H$1</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
@@ -631,7 +631,7 @@
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.60240963855421692</v>
+        <v>0.568075117370892</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -187,27 +187,27 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>25</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="2">
           <cell r="H2">
-            <v>6</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>15</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>194</v>
+            <v>210</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>120</v>
+            <v>140</v>
           </cell>
         </row>
       </sheetData>
@@ -243,12 +243,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>19</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -591,7 +591,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -601,37 +601,37 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$H$2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$H$3</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$H$1</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -652,18 +652,18 @@
       </c>
       <c r="E3" s="1">
         <f>[2]Sheet1!$G$5</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
         <f>[2]Sheet1!$G$4</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.568075117370892</v>
+        <v>0.62995594713656389</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -192,22 +192,22 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>5</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>17</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>210</v>
+            <v>213</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>140</v>
+            <v>146</v>
           </cell>
         </row>
       </sheetData>
@@ -601,11 +601,11 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$H$2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$H$3</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$H$1</f>
@@ -613,18 +613,18 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.62995594713656389</v>
+        <v>0.64782608695652177</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -192,22 +192,22 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>18</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>213</v>
+            <v>215</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>146</v>
+            <v>156</v>
           </cell>
         </row>
       </sheetData>
@@ -601,11 +601,11 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$H$2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$H$3</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$H$1</f>
@@ -613,18 +613,18 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.64782608695652177</v>
+        <v>0.68534482758620685</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -14,13 +14,14 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Total Ready to Write: </t>
   </si>
@@ -65,6 +66,9 @@
   </si>
   <si>
     <t>Create</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -249,6 +253,47 @@
         <row r="5">
           <cell r="G5">
             <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="E1">
+            <v>1</v>
+          </cell>
+          <cell r="G1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -549,7 +594,7 @@
   <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +636,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -668,9 +713,29 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <f>[3]Sheet1!$G$1</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>[3]Sheet1!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f>[3]Sheet1!$E$1</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <f>[3]Sheet1!$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f>[3]Sheet1!$G$4</f>
+        <v>1</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="3"/>
@@ -684,7 +749,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -710,7 +775,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.68534482758620685</v>
+        <v>0.68240343347639487</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -206,12 +206,12 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>215</v>
+            <v>217</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>156</v>
+            <v>158</v>
           </cell>
         </row>
       </sheetData>
@@ -658,11 +658,11 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.68240343347639487</v>
+        <v>0.68510638297872339</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -237,22 +237,22 @@
             <v>3</v>
           </cell>
           <cell r="G1">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>17</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>3</v>
+            <v>7</v>
           </cell>
         </row>
       </sheetData>
@@ -669,7 +669,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -685,11 +685,11 @@
       </c>
       <c r="B3" s="1">
         <f>[2]Sheet1!$G$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <f>[2]Sheet1!$G$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <f>[2]Sheet1!$E$1</f>
@@ -697,18 +697,18 @@
       </c>
       <c r="E3" s="1">
         <f>[2]Sheet1!$G$5</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
         <f>[2]Sheet1!$G$4</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.68510638297872339</v>
+        <v>0.70512820512820518</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -15,13 +15,14 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Total Ready to Write: </t>
   </si>
@@ -69,6 +70,9 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
 </sst>
 </file>
@@ -289,6 +293,47 @@
         <row r="4">
           <cell r="G4">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="E1">
+            <v>2</v>
+          </cell>
+          <cell r="G1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>5</v>
           </cell>
         </row>
         <row r="5">
@@ -594,7 +639,7 @@
   <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +681,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -741,15 +786,35 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <f>[4]Sheet1!$G$1</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <f>[4]Sheet1!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f>[4]Sheet1!$E$1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <f>[4]Sheet1!$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f>[4]Sheet1!$G$4</f>
+        <v>5</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -775,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.70512820512820518</v>
+        <v>0.69037656903765687</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -195,12 +195,12 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>26</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="2">
           <cell r="H2">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="3">
@@ -210,7 +210,7 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>217</v>
+            <v>220</v>
           </cell>
         </row>
         <row r="6">
@@ -681,7 +681,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$H$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$H$3</f>
@@ -699,7 +699,7 @@
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$H$1</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
@@ -707,21 +707,21 @@
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.69037656903765687</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -200,22 +200,22 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>19</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>220</v>
+            <v>221</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>158</v>
+            <v>164</v>
           </cell>
         </row>
       </sheetData>
@@ -691,11 +691,11 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$H$2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$H$3</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$H$1</f>
@@ -703,18 +703,18 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.68181818181818177</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -200,12 +200,12 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>20</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="5">
@@ -215,7 +215,7 @@
         </row>
         <row r="6">
           <cell r="H6">
-            <v>164</v>
+            <v>169</v>
           </cell>
         </row>
       </sheetData>
@@ -691,11 +691,11 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$H$2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$H$3</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$H$1</f>
@@ -703,7 +703,7 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
@@ -714,7 +714,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.70370370370370372</v>
+        <v>0.72427983539094654</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -200,22 +200,22 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>21</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>221</v>
+            <v>228</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>169</v>
+            <v>186</v>
           </cell>
         </row>
       </sheetData>
@@ -691,11 +691,11 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$H$2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$H$3</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$H$1</f>
@@ -703,18 +703,18 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.72427983539094654</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -200,12 +200,12 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>22</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="5">
@@ -215,7 +215,7 @@
         </row>
         <row r="6">
           <cell r="H6">
-            <v>186</v>
+            <v>189</v>
           </cell>
         </row>
       </sheetData>
@@ -691,11 +691,11 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$H$2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$H$3</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$H$1</f>
@@ -703,7 +703,7 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
@@ -714,7 +714,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.77200000000000002</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -251,12 +251,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>16</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>7</v>
+            <v>13</v>
           </cell>
         </row>
       </sheetData>
@@ -742,11 +742,11 @@
       </c>
       <c r="E3" s="1">
         <f>[2]Sheet1!$G$5</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <f>[2]Sheet1!$G$4</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.78400000000000003</v>
+        <v>0.7890625</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -238,10 +238,10 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="G1">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="2">
@@ -251,7 +251,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>22</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="5">
@@ -323,7 +323,7 @@
             <v>2</v>
           </cell>
           <cell r="G1">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="2">
@@ -333,7 +333,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="5">
@@ -681,7 +681,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -714,14 +714,14 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
       </c>
       <c r="B3" s="1">
         <f>[2]Sheet1!$G$1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <f>[2]Sheet1!$G$2</f>
@@ -738,7 +738,7 @@
       </c>
       <c r="D3" s="1">
         <f>[2]Sheet1!$E$1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <f>[2]Sheet1!$G$5</f>
@@ -746,7 +746,7 @@
       </c>
       <c r="F3" s="1">
         <f>[2]Sheet1!$G$4</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="B5" s="1">
         <f>[4]Sheet1!$G$1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <f>[4]Sheet1!$G$2</f>
@@ -807,14 +807,14 @@
       </c>
       <c r="F5" s="1">
         <f>[4]Sheet1!$G$4</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.7890625</v>
+        <v>0.76806083650190116</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -238,10 +238,10 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="G1">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="2">
@@ -251,7 +251,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>28</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="5">
@@ -681,7 +681,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -714,14 +714,14 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
       </c>
       <c r="B3" s="1">
         <f>[2]Sheet1!$G$1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <f>[2]Sheet1!$G$2</f>
@@ -738,7 +738,7 @@
       </c>
       <c r="D3" s="1">
         <f>[2]Sheet1!$E$1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <f>[2]Sheet1!$G$5</f>
@@ -746,7 +746,7 @@
       </c>
       <c r="F3" s="1">
         <f>[2]Sheet1!$G$4</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.76806083650190116</v>
+        <v>0.75939849624060152</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -210,12 +210,12 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>228</v>
+            <v>238</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>189</v>
+            <v>199</v>
           </cell>
         </row>
       </sheetData>
@@ -703,11 +703,11 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.75939849624060152</v>
+        <v>0.76811594202898548</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -195,7 +195,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>27</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="2">
@@ -210,12 +210,12 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>238</v>
+            <v>241</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>199</v>
+            <v>200</v>
           </cell>
         </row>
       </sheetData>
@@ -681,7 +681,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -699,15 +699,15 @@
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$H$1</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$H$6</f>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$H$5</f>
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.76811594202898548</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -292,7 +292,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="5">
@@ -779,7 +779,7 @@
       </c>
       <c r="F4" s="1">
         <f>[3]Sheet1!$G$4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -814,7 +814,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.76344086021505375</v>
+        <v>0.76071428571428568</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\IntegrationPoints\QA\Tests\CRUD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20580" windowHeight="11640"/>
   </bookViews>
@@ -17,7 +22,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -179,6 +184,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -251,7 +259,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>31</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="5">
@@ -392,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -746,7 +754,7 @@
       </c>
       <c r="F3" s="1">
         <f>[2]Sheet1!$G$4</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -814,7 +822,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -840,7 +848,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.76071428571428568</v>
+        <v>0.75</v>
       </c>
       <c r="I7" s="3"/>
     </row>
